--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\SeleniumFramework\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41618F5-87F5-46E0-B90A-E6C060878B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173FBB62-4F82-4A4F-9ED2-5EE94AC3A9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
   </bookViews>
   <sheets>
     <sheet name="testing" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+  <si>
+    <t>testname</t>
+  </si>
+  <si>
+    <t>testdescription</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>loginLogoutTest</t>
+  </si>
+  <si>
+    <t>to check whether the user can successfully login and logout</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>newTest</t>
+  </si>
+  <si>
+    <t>To check whether this test is executed</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
   <si>
     <t>username</t>
   </si>
@@ -36,44 +73,44 @@
     <t>fname</t>
   </si>
   <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>AAAA</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Rabie</t>
-  </si>
-  <si>
-    <t>Ouargua</t>
-  </si>
-  <si>
-    <t>BBBB</t>
-  </si>
-  <si>
-    <t>5678</t>
+    <t>rabie.dexter@gmail.com</t>
+  </si>
+  <si>
+    <t>Ad85021!</t>
+  </si>
+  <si>
+    <t>Ad85021!3</t>
+  </si>
+  <si>
+    <t>rabie</t>
   </si>
   <si>
     <t>Liza</t>
   </si>
   <si>
-    <t>Kolosova</t>
+    <t>Dexter</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,9 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,15 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD5885-04C1-4DBC-9785-DCEC90AEF89B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,36 +478,169 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F0D0E4-DB25-41AE-8BD5-B986C9C1C8D7}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\SeleniumFramework\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173FBB62-4F82-4A4F-9ED2-5EE94AC3A9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CACE0-AB08-4C05-9285-EA0AA3B7DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="testing" sheetId="1" r:id="rId1"/>
+    <sheet name="AllTests" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\SeleniumFramework\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CACE0-AB08-4C05-9285-EA0AA3B7DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EEBCE2-E6E3-422B-AAC1-637739146B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
   </bookViews>
   <sheets>
     <sheet name="AllTests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>testname</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -455,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD5885-04C1-4DBC-9785-DCEC90AEF89B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -507,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -523,21 +532,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F0D0E4-DB25-41AE-8BD5-B986C9C1C8D7}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,97 +554,115 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\SeleniumFramework\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EEBCE2-E6E3-422B-AAC1-637739146B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C0330-3BFF-4626-A0E0-688791E10D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
   </bookViews>
   <sheets>
     <sheet name="AllTests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>testname</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>firefox</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD5885-04C1-4DBC-9785-DCEC90AEF89B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -534,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F0D0E4-DB25-41AE-8BD5-B986C9C1C8D7}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -591,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -654,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>

--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\SeleniumFramework\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C0330-3BFF-4626-A0E0-688791E10D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D528A-D86C-4233-BFD4-AF8105485DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>testname</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>amazonTest</t>
+  </si>
+  <si>
+    <t>to check Dynamic locators</t>
+  </si>
+  <si>
+    <t>menutext</t>
+  </si>
+  <si>
+    <t>Laptops</t>
   </si>
 </sst>
 </file>
@@ -465,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD5885-04C1-4DBC-9785-DCEC90AEF89B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -528,6 +540,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -535,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F0D0E4-DB25-41AE-8BD5-B986C9C1C8D7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,9 +576,10 @@
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +598,11 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -588,8 +621,11 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -608,8 +644,11 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -628,8 +667,11 @@
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -648,8 +690,11 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -667,6 +712,32 @@
       </c>
       <c r="F6" t="s">
         <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\SeleniumFramework\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D528A-D86C-4233-BFD4-AF8105485DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD489E8E-6946-4542-AC96-FDDACC4C5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
   </bookViews>
   <sheets>
     <sheet name="AllTests" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD5885-04C1-4DBC-9785-DCEC90AEF89B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F0D0E4-DB25-41AE-8BD5-B986C9C1C8D7}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>

--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\SeleniumFramework\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD489E8E-6946-4542-AC96-FDDACC4C5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC550A9-D53C-434A-B05B-97E27825C3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E0C4D6F5-A401-4477-BC0E-59177A2A72AB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>testname</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Laptops</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>94.0.4606.61</t>
+  </si>
+  <si>
+    <t>92.0.1</t>
   </si>
 </sst>
 </file>
@@ -564,22 +573,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F0D0E4-DB25-41AE-8BD5-B986C9C1C8D7}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,19 +600,22 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -612,43 +625,49 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -658,20 +677,23 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -681,43 +703,49 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -728,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
@@ -736,7 +764,10 @@
       <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
     </row>
